--- a/generator/data/generated_business_labels_map_downloads.xlsx
+++ b/generator/data/generated_business_labels_map_downloads.xlsx
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve">p_hlth_safety_measures</t>
   </si>
   <si>
-    <t xml:space="preserve">Informing workers on Covid-19 transmission and prevention measures</t>
+    <t xml:space="preserve">Informing workers on COVID-19 transmission and prevention measures</t>
   </si>
   <si>
     <t xml:space="preserve">कोभिड-१९ प्रसारण र रोकथाम उपायहरूमा कामदारहरूलाई जानकारी दिने</t>
@@ -1849,7 +1849,7 @@
     <t xml:space="preserve">p_hlth_safety_measures__8</t>
   </si>
   <si>
-    <t xml:space="preserve">Providing Covid-19 insurance</t>
+    <t xml:space="preserve">Providing COVID-19 insurance</t>
   </si>
   <si>
     <t xml:space="preserve">कोभिड-१९ बीमा प्रदान गर्ने </t>
@@ -3689,11 +3689,11 @@
   </sheetPr>
   <dimension ref="A1:K427"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="C100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A250" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C244" activeCellId="0" sqref="C244:C260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.85"/>
@@ -3703,7 +3703,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="46.71"/>
   </cols>
@@ -10841,7 +10841,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>584</v>
       </c>
